--- a/Term.xlsx
+++ b/Term.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine Comia\OneDrive\Documents\GitHub\FilipinoSlangTranslate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Predator\OneDrive\Documents\GitHub\FilipinoSlangTranslate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4AAE5-2A5B-4452-98E9-EFD107562A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE3F904-E3C9-4092-BE16-4CE07AD84205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,9 +487,6 @@
     <t>bokal</t>
   </si>
   <si>
-    <t>Noypi</t>
-  </si>
-  <si>
     <t>Derived from "Pinoy", refers to the citizen of the Philippines</t>
   </si>
   <si>
@@ -813,6 +810,9 @@
   </si>
   <si>
     <t>charot</t>
+  </si>
+  <si>
+    <t>noypi</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1115,8 @@
   </sheetPr>
   <dimension ref="A1:B1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>22</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>22</v>
@@ -1323,7 +1323,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1736,7 +1736,7 @@
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>126</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>126</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>127</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>127</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>130</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>130</v>
@@ -1875,7 +1875,7 @@
         <v>149</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1883,7 +1883,7 @@
         <v>151</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
         <v>152</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1904,199 +1904,199 @@
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>24</v>
@@ -2104,154 +2104,154 @@
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
